--- a/csv_to_excel/Humidity_excel/Tai Po(Yuen Chau Tsai Park)_humidity.xlsx
+++ b/csv_to_excel/Humidity_excel/Tai Po(Yuen Chau Tsai Park)_humidity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F335"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>Value_x</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Data Completeness</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly Avg</t>
         </is>
       </c>
     </row>
@@ -473,15 +478,16 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E2" t="n">
+        <v>83</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -497,15 +503,16 @@
       <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="E3" t="n">
+        <v>80</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G3" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -521,15 +528,16 @@
       <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+      <c r="E4" t="n">
+        <v>59</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G4" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -545,15 +553,16 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="E5" t="n">
+        <v>61</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G5" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -569,15 +578,16 @@
       <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+      <c r="E6" t="n">
+        <v>69</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G6" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -593,15 +603,16 @@
       <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="E7" t="n">
+        <v>74</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G7" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -617,15 +628,16 @@
       <c r="D8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="E8" t="n">
+        <v>70</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G8" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -641,15 +653,16 @@
       <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+      <c r="E9" t="n">
+        <v>56</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G9" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -665,15 +678,16 @@
       <c r="D10" t="n">
         <v>9</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="E10" t="n">
+        <v>67</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G10" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="11">
@@ -689,15 +703,16 @@
       <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+      <c r="E11" t="n">
+        <v>71</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G11" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -713,15 +728,16 @@
       <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="E12" t="n">
+        <v>79</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G12" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -737,15 +753,16 @@
       <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E13" t="n">
+        <v>83</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G13" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -761,15 +778,16 @@
       <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="E14" t="n">
+        <v>82</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G14" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -785,15 +803,16 @@
       <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="E15" t="n">
+        <v>68</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G15" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="16">
@@ -809,15 +828,16 @@
       <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="E16" t="n">
+        <v>74</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G16" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -833,15 +853,16 @@
       <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="E17" t="n">
+        <v>78</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G17" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="18">
@@ -857,15 +878,16 @@
       <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="E18" t="n">
+        <v>74</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G18" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="19">
@@ -881,15 +903,16 @@
       <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E19" t="n">
+        <v>75</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G19" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="20">
@@ -905,15 +928,16 @@
       <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="E20" t="n">
+        <v>88</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G20" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="21">
@@ -929,15 +953,16 @@
       <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="E21" t="n">
+        <v>80</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G21" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="22">
@@ -953,15 +978,16 @@
       <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="E22" t="n">
+        <v>82</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G22" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="23">
@@ -977,15 +1003,16 @@
       <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="E23" t="n">
+        <v>87</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G23" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="24">
@@ -1001,15 +1028,16 @@
       <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E24" t="n">
+        <v>83</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G24" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="25">
@@ -1025,15 +1053,16 @@
       <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="E25" t="n">
+        <v>84</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G25" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="26">
@@ -1049,15 +1078,16 @@
       <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
+      <c r="E26" t="n">
+        <v>76</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G26" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="27">
@@ -1073,15 +1103,16 @@
       <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
+      <c r="E27" t="n">
+        <v>76</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G27" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="28">
@@ -1097,15 +1128,16 @@
       <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="E28" t="n">
+        <v>78</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G28" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="29">
@@ -1121,15 +1153,16 @@
       <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E29" t="n">
+        <v>81</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G29" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="30">
@@ -1145,15 +1178,16 @@
       <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E30" t="n">
+        <v>83</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G30" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="31">
@@ -1169,15 +1203,16 @@
       <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="E31" t="n">
+        <v>90</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G31" t="n">
+        <v>76.36666666666666</v>
       </c>
     </row>
     <row r="32">
@@ -1193,15 +1228,16 @@
       <c r="D32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="E32" t="n">
+        <v>94</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G32" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="33">
@@ -1217,15 +1253,16 @@
       <c r="D33" t="n">
         <v>2</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+      <c r="E33" t="n">
+        <v>85</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G33" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="34">
@@ -1241,15 +1278,16 @@
       <c r="D34" t="n">
         <v>3</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="E34" t="n">
+        <v>67</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G34" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="35">
@@ -1265,15 +1303,16 @@
       <c r="D35" t="n">
         <v>4</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="E35" t="n">
+        <v>67</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G35" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="36">
@@ -1289,15 +1328,16 @@
       <c r="D36" t="n">
         <v>5</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E36" t="n">
+        <v>75</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G36" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="37">
@@ -1313,15 +1353,16 @@
       <c r="D37" t="n">
         <v>6</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="E37" t="n">
+        <v>79</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G37" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="38">
@@ -1337,15 +1378,16 @@
       <c r="D38" t="n">
         <v>7</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E38" t="n">
+        <v>83</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G38" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="39">
@@ -1361,15 +1403,16 @@
       <c r="D39" t="n">
         <v>8</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E39" t="n">
+        <v>75</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G39" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="40">
@@ -1385,15 +1428,16 @@
       <c r="D40" t="n">
         <v>9</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="E40" t="n">
+        <v>79</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G40" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="41">
@@ -1409,15 +1453,16 @@
       <c r="D41" t="n">
         <v>10</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="E41" t="n">
+        <v>94</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G41" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="42">
@@ -1433,15 +1478,16 @@
       <c r="D42" t="n">
         <v>11</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+      <c r="E42" t="n">
+        <v>98</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G42" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="43">
@@ -1457,15 +1503,16 @@
       <c r="D43" t="n">
         <v>12</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
+      <c r="E43" t="n">
+        <v>99</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G43" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="44">
@@ -1481,15 +1528,16 @@
       <c r="D44" t="n">
         <v>13</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="E44" t="n">
+        <v>95</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G44" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="45">
@@ -1505,15 +1553,16 @@
       <c r="D45" t="n">
         <v>14</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
+      <c r="E45" t="n">
+        <v>97</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G45" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="46">
@@ -1529,15 +1578,16 @@
       <c r="D46" t="n">
         <v>15</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="E46" t="n">
+        <v>95</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G46" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="47">
@@ -1553,15 +1603,16 @@
       <c r="D47" t="n">
         <v>16</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+      <c r="E47" t="n">
+        <v>89</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G47" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="48">
@@ -1577,15 +1628,16 @@
       <c r="D48" t="n">
         <v>17</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="E48" t="n">
+        <v>74</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G48" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="49">
@@ -1601,15 +1653,16 @@
       <c r="D49" t="n">
         <v>18</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+      <c r="E49" t="n">
+        <v>56</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G49" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="50">
@@ -1625,15 +1678,16 @@
       <c r="D50" t="n">
         <v>19</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="E50" t="n">
+        <v>66</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G50" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="51">
@@ -1649,15 +1703,16 @@
       <c r="D51" t="n">
         <v>20</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="E51" t="n">
+        <v>80</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G51" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="52">
@@ -1673,15 +1728,16 @@
       <c r="D52" t="n">
         <v>21</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E52" t="n">
+        <v>83</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G52" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="53">
@@ -1697,15 +1753,16 @@
       <c r="D53" t="n">
         <v>22</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="E53" t="n">
+        <v>86</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G53" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="54">
@@ -1721,15 +1778,16 @@
       <c r="D54" t="n">
         <v>23</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="E54" t="n">
+        <v>91</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G54" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="55">
@@ -1745,15 +1803,16 @@
       <c r="D55" t="n">
         <v>24</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+      <c r="E55" t="n">
+        <v>98</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G55" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="56">
@@ -1769,15 +1828,16 @@
       <c r="D56" t="n">
         <v>25</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="E56" t="n">
+        <v>94</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G56" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="57">
@@ -1793,15 +1853,16 @@
       <c r="D57" t="n">
         <v>26</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
+      <c r="E57" t="n">
+        <v>93</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G57" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="58">
@@ -1817,15 +1878,16 @@
       <c r="D58" t="n">
         <v>27</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
+      <c r="E58" t="n">
+        <v>99</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G58" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="59">
@@ -1841,15 +1903,16 @@
       <c r="D59" t="n">
         <v>28</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="E59" t="n">
+        <v>84</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G59" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="60">
@@ -1865,15 +1928,16 @@
       <c r="D60" t="n">
         <v>29</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="E60" t="n">
+        <v>80</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G60" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="61">
@@ -1889,15 +1953,16 @@
       <c r="D61" t="n">
         <v>30</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="E61" t="n">
+        <v>88</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G61" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="62">
@@ -1913,15 +1978,16 @@
       <c r="D62" t="n">
         <v>31</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="E62" t="n">
+        <v>88</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G62" t="n">
+        <v>84.87096774193549</v>
       </c>
     </row>
     <row r="63">
@@ -1937,15 +2003,16 @@
       <c r="D63" t="n">
         <v>1</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+      <c r="E63" t="n">
+        <v>85</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G63" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="64">
@@ -1961,15 +2028,16 @@
       <c r="D64" t="n">
         <v>2</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="E64" t="n">
+        <v>82</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G64" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="65">
@@ -1985,15 +2053,16 @@
       <c r="D65" t="n">
         <v>3</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="E65" t="n">
+        <v>90</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G65" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="66">
@@ -2009,15 +2078,16 @@
       <c r="D66" t="n">
         <v>4</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="E66" t="n">
+        <v>82</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G66" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="67">
@@ -2033,15 +2103,16 @@
       <c r="D67" t="n">
         <v>5</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="E67" t="n">
+        <v>79</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G67" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="68">
@@ -2057,15 +2128,16 @@
       <c r="D68" t="n">
         <v>6</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="E68" t="n">
+        <v>87</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G68" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -2081,15 +2153,16 @@
       <c r="D69" t="n">
         <v>7</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="E69" t="n">
+        <v>95</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G69" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="70">
@@ -2105,15 +2178,16 @@
       <c r="D70" t="n">
         <v>8</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
+      <c r="E70" t="n">
+        <v>99</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G70" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="71">
@@ -2129,15 +2203,16 @@
       <c r="D71" t="n">
         <v>9</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="E71" t="n">
+        <v>95</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G71" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="72">
@@ -2153,15 +2228,16 @@
       <c r="D72" t="n">
         <v>10</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="E72" t="n">
+        <v>91</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G72" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="73">
@@ -2177,15 +2253,16 @@
       <c r="D73" t="n">
         <v>11</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
+      <c r="E73" t="n">
+        <v>97</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G73" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="74">
@@ -2201,15 +2278,16 @@
       <c r="D74" t="n">
         <v>12</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+      <c r="E74" t="n">
+        <v>89</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G74" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="75">
@@ -2225,15 +2303,16 @@
       <c r="D75" t="n">
         <v>13</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E75" t="n">
+        <v>81</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G75" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="76">
@@ -2249,15 +2328,16 @@
       <c r="D76" t="n">
         <v>14</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="E76" t="n">
+        <v>91</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G76" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="77">
@@ -2273,15 +2353,16 @@
       <c r="D77" t="n">
         <v>15</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
+      <c r="E77" t="n">
+        <v>92</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G77" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="78">
@@ -2297,15 +2378,16 @@
       <c r="D78" t="n">
         <v>16</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="E78" t="n">
+        <v>91</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G78" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="79">
@@ -2321,15 +2403,16 @@
       <c r="D79" t="n">
         <v>17</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E79" t="n">
+        <v>83</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G79" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="80">
@@ -2345,15 +2428,16 @@
       <c r="D80" t="n">
         <v>18</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E80" t="n">
+        <v>83</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G80" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="81">
@@ -2369,15 +2453,16 @@
       <c r="D81" t="n">
         <v>19</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="E81" t="n">
+        <v>87</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G81" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="82">
@@ -2393,15 +2478,16 @@
       <c r="D82" t="n">
         <v>20</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E82" t="n">
+        <v>81</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G82" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="83">
@@ -2417,15 +2503,16 @@
       <c r="D83" t="n">
         <v>21</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="E83" t="n">
+        <v>79</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G83" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="84">
@@ -2441,15 +2528,16 @@
       <c r="D84" t="n">
         <v>22</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E84" t="n">
+        <v>77</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G84" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="85">
@@ -2465,15 +2553,16 @@
       <c r="D85" t="n">
         <v>23</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="E85" t="n">
+        <v>74</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G85" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="86">
@@ -2489,15 +2578,16 @@
       <c r="D86" t="n">
         <v>24</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
+      <c r="E86" t="n">
+        <v>76</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G86" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="87">
@@ -2513,15 +2603,16 @@
       <c r="D87" t="n">
         <v>25</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E87" t="n">
+        <v>77</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G87" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="88">
@@ -2537,15 +2628,16 @@
       <c r="D88" t="n">
         <v>26</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E88" t="n">
+        <v>77</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G88" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="89">
@@ -2561,15 +2653,16 @@
       <c r="D89" t="n">
         <v>27</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E89" t="n">
+        <v>75</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G89" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="90">
@@ -2585,15 +2678,16 @@
       <c r="D90" t="n">
         <v>28</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E90" t="n">
+        <v>77</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G90" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="91">
@@ -2609,15 +2703,16 @@
       <c r="D91" t="n">
         <v>29</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="E91" t="n">
+        <v>84</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G91" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="92">
@@ -2633,15 +2728,16 @@
       <c r="D92" t="n">
         <v>30</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
+      <c r="E92" t="n">
+        <v>93</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G92" t="n">
+        <v>84.96666666666667</v>
       </c>
     </row>
     <row r="93">
@@ -2657,15 +2753,16 @@
       <c r="D93" t="n">
         <v>1</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="E93" t="n">
+        <v>88</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G93" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="94">
@@ -2681,15 +2778,16 @@
       <c r="D94" t="n">
         <v>2</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
+      <c r="E94" t="n">
+        <v>92</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G94" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="95">
@@ -2705,15 +2803,16 @@
       <c r="D95" t="n">
         <v>3</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E95" t="n">
+        <v>77</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G95" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="96">
@@ -2729,15 +2828,16 @@
       <c r="D96" t="n">
         <v>4</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="E96" t="n">
+        <v>84</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G96" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="97">
@@ -2753,15 +2853,16 @@
       <c r="D97" t="n">
         <v>5</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="E97" t="n">
+        <v>91</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G97" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="98">
@@ -2777,15 +2878,16 @@
       <c r="D98" t="n">
         <v>6</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="E98" t="n">
+        <v>87</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G98" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="99">
@@ -2801,15 +2903,16 @@
       <c r="D99" t="n">
         <v>7</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="E99" t="n">
+        <v>94</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G99" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="100">
@@ -2825,15 +2928,16 @@
       <c r="D100" t="n">
         <v>8</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="E100" t="n">
+        <v>84</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G100" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="101">
@@ -2849,15 +2953,16 @@
       <c r="D101" t="n">
         <v>9</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E101" t="n">
+        <v>83</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G101" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="102">
@@ -2873,15 +2978,16 @@
       <c r="D102" t="n">
         <v>10</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E102" t="n">
+        <v>81</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G102" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="103">
@@ -2897,15 +3003,16 @@
       <c r="D103" t="n">
         <v>11</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="E103" t="n">
+        <v>78</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G103" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="104">
@@ -2921,15 +3028,16 @@
       <c r="D104" t="n">
         <v>12</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E104" t="n">
+        <v>77</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G104" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="105">
@@ -2945,15 +3053,16 @@
       <c r="D105" t="n">
         <v>13</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="E105" t="n">
+        <v>74</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G105" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="106">
@@ -2969,15 +3078,16 @@
       <c r="D106" t="n">
         <v>14</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E106" t="n">
+        <v>75</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G106" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="107">
@@ -2993,15 +3103,16 @@
       <c r="D107" t="n">
         <v>15</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E107" t="n">
+        <v>77</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G107" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="108">
@@ -3017,15 +3128,16 @@
       <c r="D108" t="n">
         <v>16</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="E108" t="n">
+        <v>78</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G108" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="109">
@@ -3041,15 +3153,16 @@
       <c r="D109" t="n">
         <v>17</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E109" t="n">
+        <v>75</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G109" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="110">
@@ -3065,15 +3178,16 @@
       <c r="D110" t="n">
         <v>18</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
+      <c r="E110" t="n">
+        <v>76</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G110" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="111">
@@ -3089,15 +3203,16 @@
       <c r="D111" t="n">
         <v>19</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="E111" t="n">
+        <v>79</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G111" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="112">
@@ -3113,15 +3228,16 @@
       <c r="D112" t="n">
         <v>20</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E112" t="n">
+        <v>81</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G112" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="113">
@@ -3137,15 +3253,16 @@
       <c r="D113" t="n">
         <v>21</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E113" t="n">
+        <v>81</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G113" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="114">
@@ -3161,15 +3278,16 @@
       <c r="D114" t="n">
         <v>22</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="E114" t="n">
+        <v>72</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G114" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="115">
@@ -3185,15 +3303,16 @@
       <c r="D115" t="n">
         <v>23</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E115" t="n">
+        <v>75</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G115" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="116">
@@ -3209,15 +3328,16 @@
       <c r="D116" t="n">
         <v>24</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="E116" t="n">
+        <v>73</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G116" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="117">
@@ -3233,15 +3353,16 @@
       <c r="D117" t="n">
         <v>25</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E117" t="n">
+        <v>75</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G117" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="118">
@@ -3257,15 +3378,16 @@
       <c r="D118" t="n">
         <v>26</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E118" t="n">
+        <v>75</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G118" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="119">
@@ -3281,15 +3403,16 @@
       <c r="D119" t="n">
         <v>27</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="E119" t="n">
+        <v>72</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G119" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="120">
@@ -3305,15 +3428,16 @@
       <c r="D120" t="n">
         <v>28</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="E120" t="n">
+        <v>74</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G120" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="121">
@@ -3329,15 +3453,16 @@
       <c r="D121" t="n">
         <v>29</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="E121" t="n">
+        <v>73</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G121" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="122">
@@ -3353,15 +3478,16 @@
       <c r="D122" t="n">
         <v>30</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="E122" t="n">
+        <v>87</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G122" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="123">
@@ -3377,15 +3503,16 @@
       <c r="D123" t="n">
         <v>31</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="E123" t="n">
+        <v>78</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G123" t="n">
+        <v>79.54838709677419</v>
       </c>
     </row>
     <row r="124">
@@ -3401,15 +3528,16 @@
       <c r="D124" t="n">
         <v>1</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="E124" t="n">
+        <v>73</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G124" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="125">
@@ -3425,15 +3553,16 @@
       <c r="D125" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="E125" t="n">
+        <v>79</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G125" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="126">
@@ -3449,15 +3578,16 @@
       <c r="D126" t="n">
         <v>3</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+      <c r="E126" t="n">
+        <v>89</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G126" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="127">
@@ -3473,15 +3603,16 @@
       <c r="D127" t="n">
         <v>4</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="E127" t="n">
+        <v>96</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G127" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="128">
@@ -3497,15 +3628,16 @@
       <c r="D128" t="n">
         <v>5</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
+      <c r="E128" t="n">
+        <v>97</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G128" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="129">
@@ -3521,15 +3653,16 @@
       <c r="D129" t="n">
         <v>6</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="E129" t="n">
+        <v>91</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G129" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="130">
@@ -3545,15 +3678,16 @@
       <c r="D130" t="n">
         <v>7</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="E130" t="n">
+        <v>82</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G130" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="131">
@@ -3569,15 +3703,16 @@
       <c r="D131" t="n">
         <v>8</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="E131" t="n">
+        <v>91</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G131" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="132">
@@ -3593,15 +3728,16 @@
       <c r="D132" t="n">
         <v>9</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
+      <c r="E132" t="n">
+        <v>93</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G132" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="133">
@@ -3617,15 +3753,16 @@
       <c r="D133" t="n">
         <v>10</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="E133" t="n">
+        <v>90</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G133" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="134">
@@ -3641,15 +3778,16 @@
       <c r="D134" t="n">
         <v>11</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
+      <c r="E134" t="n">
+        <v>93</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G134" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="135">
@@ -3665,15 +3803,16 @@
       <c r="D135" t="n">
         <v>12</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+      <c r="E135" t="n">
+        <v>98</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G135" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="136">
@@ -3689,15 +3828,16 @@
       <c r="D136" t="n">
         <v>13</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="E136" t="n">
+        <v>90</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G136" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="137">
@@ -3713,15 +3853,16 @@
       <c r="D137" t="n">
         <v>14</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="E137" t="n">
+        <v>88</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G137" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="138">
@@ -3737,15 +3878,16 @@
       <c r="D138" t="n">
         <v>15</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E138" t="n">
+        <v>81</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G138" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="139">
@@ -3761,15 +3903,16 @@
       <c r="D139" t="n">
         <v>16</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E139" t="n">
+        <v>81</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G139" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="140">
@@ -3785,15 +3928,16 @@
       <c r="D140" t="n">
         <v>17</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="E140" t="n">
+        <v>91</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G140" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="141">
@@ -3809,15 +3953,16 @@
       <c r="D141" t="n">
         <v>18</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="E141" t="n">
+        <v>91</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G141" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="142">
@@ -3833,15 +3978,16 @@
       <c r="D142" t="n">
         <v>19</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+      <c r="E142" t="n">
+        <v>89</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G142" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="143">
@@ -3857,15 +4003,16 @@
       <c r="D143" t="n">
         <v>20</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="E143" t="n">
+        <v>86</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G143" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="144">
@@ -3881,15 +4028,16 @@
       <c r="D144" t="n">
         <v>21</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="E144" t="n">
+        <v>87</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G144" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="145">
@@ -3905,15 +4053,16 @@
       <c r="D145" t="n">
         <v>22</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E145" t="n">
+        <v>77</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G145" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="146">
@@ -3929,15 +4078,16 @@
       <c r="D146" t="n">
         <v>23</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="E146" t="n">
+        <v>79</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G146" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="147">
@@ -3953,15 +4103,16 @@
       <c r="D147" t="n">
         <v>24</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="E147" t="n">
+        <v>78</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G147" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="148">
@@ -3977,15 +4128,16 @@
       <c r="D148" t="n">
         <v>25</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="E148" t="n">
+        <v>90</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G148" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="149">
@@ -4001,15 +4153,16 @@
       <c r="D149" t="n">
         <v>26</v>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="E149" t="n">
+        <v>88</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G149" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="150">
@@ -4025,15 +4178,16 @@
       <c r="D150" t="n">
         <v>27</v>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="E150" t="n">
+        <v>79</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G150" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="151">
@@ -4049,15 +4203,16 @@
       <c r="D151" t="n">
         <v>28</v>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E151" t="n">
+        <v>83</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G151" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="152">
@@ -4073,15 +4228,16 @@
       <c r="D152" t="n">
         <v>29</v>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="E152" t="n">
+        <v>84</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G152" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="153">
@@ -4097,15 +4253,16 @@
       <c r="D153" t="n">
         <v>30</v>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E153" t="n">
+        <v>83</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G153" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="154">
@@ -4121,15 +4278,16 @@
       <c r="D154" t="n">
         <v>31</v>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E154" t="n">
+        <v>81</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G154" t="n">
+        <v>86.38709677419355</v>
       </c>
     </row>
     <row r="155">
@@ -4145,15 +4303,16 @@
       <c r="D155" t="n">
         <v>1</v>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="E155" t="n">
+        <v>86</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G155" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="156">
@@ -4169,15 +4328,16 @@
       <c r="D156" t="n">
         <v>2</v>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+      <c r="E156" t="n">
+        <v>69</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G156" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="157">
@@ -4193,15 +4353,16 @@
       <c r="D157" t="n">
         <v>3</v>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="E157" t="n">
+        <v>57</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G157" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="158">
@@ -4217,15 +4378,16 @@
       <c r="D158" t="n">
         <v>4</v>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+      <c r="E158" t="n">
+        <v>59</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G158" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="159">
@@ -4241,15 +4403,16 @@
       <c r="D159" t="n">
         <v>5</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="E159" t="n">
+        <v>58</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G159" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="160">
@@ -4265,15 +4428,16 @@
       <c r="D160" t="n">
         <v>6</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="E160" t="n">
+        <v>68</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G160" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="161">
@@ -4289,15 +4453,16 @@
       <c r="D161" t="n">
         <v>7</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="E161" t="n">
+        <v>86</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G161" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="162">
@@ -4313,15 +4478,16 @@
       <c r="D162" t="n">
         <v>8</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+      <c r="E162" t="n">
+        <v>71</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G162" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -4337,15 +4503,16 @@
       <c r="D163" t="n">
         <v>9</v>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="E163" t="n">
+        <v>58</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G163" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="164">
@@ -4361,15 +4528,16 @@
       <c r="D164" t="n">
         <v>10</v>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="E164" t="n">
+        <v>78</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G164" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="165">
@@ -4385,15 +4553,16 @@
       <c r="D165" t="n">
         <v>11</v>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E165" t="n">
+        <v>77</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G165" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="166">
@@ -4409,15 +4578,16 @@
       <c r="D166" t="n">
         <v>12</v>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="E166" t="n">
+        <v>68</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G166" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="167">
@@ -4433,15 +4603,16 @@
       <c r="D167" t="n">
         <v>13</v>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="E167" t="n">
+        <v>60</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G167" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="168">
@@ -4457,15 +4628,16 @@
       <c r="D168" t="n">
         <v>14</v>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="E168" t="n">
+        <v>53</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G168" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="169">
@@ -4481,15 +4653,16 @@
       <c r="D169" t="n">
         <v>15</v>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
+      <c r="E169" t="n">
+        <v>63</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G169" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="170">
@@ -4505,15 +4678,16 @@
       <c r="D170" t="n">
         <v>16</v>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+      <c r="E170" t="n">
+        <v>71</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G170" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="171">
@@ -4529,15 +4703,16 @@
       <c r="D171" t="n">
         <v>17</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="E171" t="n">
+        <v>74</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G171" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="172">
@@ -4553,15 +4728,16 @@
       <c r="D172" t="n">
         <v>18</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E172" t="n">
+        <v>81</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G172" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="173">
@@ -4577,15 +4753,16 @@
       <c r="D173" t="n">
         <v>19</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E173" t="n">
+        <v>83</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G173" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="174">
@@ -4601,15 +4778,16 @@
       <c r="D174" t="n">
         <v>20</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="E174" t="n">
+        <v>87</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G174" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -4625,15 +4803,16 @@
       <c r="D175" t="n">
         <v>21</v>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="E175" t="n">
+        <v>73</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G175" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="176">
@@ -4649,15 +4828,16 @@
       <c r="D176" t="n">
         <v>22</v>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E176" t="n">
+        <v>77</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G176" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="177">
@@ -4673,15 +4853,16 @@
       <c r="D177" t="n">
         <v>23</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E177" t="n">
+        <v>83</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G177" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="178">
@@ -4697,15 +4878,16 @@
       <c r="D178" t="n">
         <v>24</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E178" t="n">
+        <v>75</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G178" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="179">
@@ -4721,15 +4903,16 @@
       <c r="D179" t="n">
         <v>25</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="E179" t="n">
+        <v>74</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G179" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="180">
@@ -4745,15 +4928,16 @@
       <c r="D180" t="n">
         <v>26</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E180" t="n">
+        <v>77</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G180" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="181">
@@ -4769,15 +4953,16 @@
       <c r="D181" t="n">
         <v>27</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E181" t="n">
+        <v>75</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G181" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -4793,15 +4978,16 @@
       <c r="D182" t="n">
         <v>28</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
+      <c r="E182" t="n">
+        <v>76</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G182" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="183">
@@ -4817,15 +5003,16 @@
       <c r="D183" t="n">
         <v>29</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="E183" t="n">
+        <v>82</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G183" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="184">
@@ -4841,15 +5028,16 @@
       <c r="D184" t="n">
         <v>30</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="E184" t="n">
+        <v>94</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G184" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="185">
@@ -4865,15 +5053,16 @@
       <c r="D185" t="n">
         <v>1</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="E185" t="n">
+        <v>90</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G185" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="186">
@@ -4889,15 +5078,16 @@
       <c r="D186" t="n">
         <v>2</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="E186" t="n">
+        <v>86</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G186" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="187">
@@ -4913,15 +5103,16 @@
       <c r="D187" t="n">
         <v>3</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="E187" t="n">
+        <v>82</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G187" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="188">
@@ -4937,15 +5128,16 @@
       <c r="D188" t="n">
         <v>4</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="E188" t="n">
+        <v>82</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G188" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="189">
@@ -4961,15 +5153,16 @@
       <c r="D189" t="n">
         <v>5</v>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E189" t="n">
+        <v>81</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G189" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="190">
@@ -4985,15 +5178,16 @@
       <c r="D190" t="n">
         <v>6</v>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E190" t="n">
+        <v>77</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G190" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="191">
@@ -5009,15 +5203,16 @@
       <c r="D191" t="n">
         <v>7</v>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="E191" t="n">
+        <v>78</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G191" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="192">
@@ -5033,15 +5228,16 @@
       <c r="D192" t="n">
         <v>8</v>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="E192" t="n">
+        <v>79</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G192" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="193">
@@ -5057,15 +5253,16 @@
       <c r="D193" t="n">
         <v>9</v>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+      <c r="E193" t="n">
+        <v>69</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G193" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="194">
@@ -5081,15 +5278,16 @@
       <c r="D194" t="n">
         <v>10</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="E194" t="n">
+        <v>50</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G194" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="195">
@@ -5105,15 +5303,16 @@
       <c r="D195" t="n">
         <v>11</v>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="E195" t="n">
+        <v>48</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G195" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="196">
@@ -5129,15 +5328,16 @@
       <c r="D196" t="n">
         <v>12</v>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="E196" t="n">
+        <v>53</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G196" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="197">
@@ -5153,15 +5353,16 @@
       <c r="D197" t="n">
         <v>13</v>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="E197" t="n">
+        <v>61</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G197" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="198">
@@ -5177,15 +5378,16 @@
       <c r="D198" t="n">
         <v>14</v>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="E198" t="n">
+        <v>68</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G198" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="199">
@@ -5201,15 +5403,16 @@
       <c r="D199" t="n">
         <v>15</v>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="E199" t="n">
+        <v>60</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G199" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="200">
@@ -5225,15 +5428,16 @@
       <c r="D200" t="n">
         <v>16</v>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="E200" t="n">
+        <v>45</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G200" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="201">
@@ -5249,15 +5453,16 @@
       <c r="D201" t="n">
         <v>17</v>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="E201" t="n">
+        <v>45</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G201" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="202">
@@ -5273,15 +5478,16 @@
       <c r="D202" t="n">
         <v>18</v>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="E202" t="n">
+        <v>66</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G202" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="203">
@@ -5297,15 +5503,16 @@
       <c r="D203" t="n">
         <v>19</v>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="E203" t="n">
+        <v>54</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G203" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="204">
@@ -5321,15 +5528,16 @@
       <c r="D204" t="n">
         <v>20</v>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="E204" t="n">
+        <v>67</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G204" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="205">
@@ -5345,15 +5553,16 @@
       <c r="D205" t="n">
         <v>21</v>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="E205" t="n">
+        <v>70</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G205" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="206">
@@ -5369,15 +5578,16 @@
       <c r="D206" t="n">
         <v>22</v>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="E206" t="n">
+        <v>72</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G206" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="207">
@@ -5393,15 +5603,16 @@
       <c r="D207" t="n">
         <v>23</v>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
+      <c r="E207" t="n">
+        <v>76</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G207" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="208">
@@ -5417,15 +5628,16 @@
       <c r="D208" t="n">
         <v>24</v>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="E208" t="n">
+        <v>73</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G208" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="209">
@@ -5441,15 +5653,16 @@
       <c r="D209" t="n">
         <v>25</v>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="E209" t="n">
+        <v>67</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G209" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="210">
@@ -5465,15 +5678,16 @@
       <c r="D210" t="n">
         <v>26</v>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="E210" t="n">
+        <v>68</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G210" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="211">
@@ -5489,15 +5703,16 @@
       <c r="D211" t="n">
         <v>27</v>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="E211" t="n">
+        <v>72</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G211" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="212">
@@ -5513,15 +5728,16 @@
       <c r="D212" t="n">
         <v>28</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+      <c r="E212" t="n">
+        <v>71</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G212" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="213">
@@ -5537,15 +5753,16 @@
       <c r="D213" t="n">
         <v>29</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="E213" t="n">
+        <v>65</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G213" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="214">
@@ -5561,15 +5778,16 @@
       <c r="D214" t="n">
         <v>30</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+      <c r="E214" t="n">
+        <v>56</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G214" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="215">
@@ -5585,15 +5803,16 @@
       <c r="D215" t="n">
         <v>31</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+      <c r="E215" t="n">
+        <v>49</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G215" t="n">
+        <v>67.09677419354838</v>
       </c>
     </row>
     <row r="216">
@@ -5609,15 +5828,16 @@
       <c r="D216" t="n">
         <v>1</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
+      <c r="E216" t="n">
+        <v>63</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G216" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="217">
@@ -5633,15 +5853,16 @@
       <c r="D217" t="n">
         <v>2</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="E217" t="n">
+        <v>90</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G217" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="218">
@@ -5657,15 +5878,16 @@
       <c r="D218" t="n">
         <v>3</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
+      <c r="E218" t="n">
+        <v>97</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G218" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="219">
@@ -5681,15 +5903,16 @@
       <c r="D219" t="n">
         <v>4</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+      <c r="E219" t="n">
+        <v>89</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G219" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="220">
@@ -5705,15 +5928,16 @@
       <c r="D220" t="n">
         <v>5</v>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E220" t="n">
+        <v>83</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G220" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="221">
@@ -5729,15 +5953,16 @@
       <c r="D221" t="n">
         <v>6</v>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+      <c r="E221" t="n">
+        <v>89</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G221" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="222">
@@ -5753,15 +5978,16 @@
       <c r="D222" t="n">
         <v>7</v>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="E222" t="n">
+        <v>90</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G222" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="223">
@@ -5777,15 +6003,16 @@
       <c r="D223" t="n">
         <v>8</v>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="E223" t="n">
+        <v>90</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G223" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="224">
@@ -5801,15 +6028,16 @@
       <c r="D224" t="n">
         <v>9</v>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E224" t="n">
+        <v>83</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G224" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="225">
@@ -5825,15 +6053,16 @@
       <c r="D225" t="n">
         <v>10</v>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="E225" t="n">
+        <v>82</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G225" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="226">
@@ -5849,15 +6078,16 @@
       <c r="D226" t="n">
         <v>11</v>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="E226" t="n">
+        <v>82</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G226" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="227">
@@ -5873,15 +6103,16 @@
       <c r="D227" t="n">
         <v>12</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="E227" t="n">
+        <v>86</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G227" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="228">
@@ -5897,15 +6128,16 @@
       <c r="D228" t="n">
         <v>13</v>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="E228" t="n">
+        <v>86</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G228" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="229">
@@ -5921,15 +6153,16 @@
       <c r="D229" t="n">
         <v>14</v>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E229" t="n">
+        <v>81</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G229" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="230">
@@ -5945,15 +6178,16 @@
       <c r="D230" t="n">
         <v>15</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="E230" t="n">
+        <v>82</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G230" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="231">
@@ -5969,15 +6203,16 @@
       <c r="D231" t="n">
         <v>16</v>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E231" t="n">
+        <v>83</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G231" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="232">
@@ -5993,15 +6228,16 @@
       <c r="D232" t="n">
         <v>17</v>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+      <c r="E232" t="n">
+        <v>85</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G232" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="233">
@@ -6017,15 +6253,16 @@
       <c r="D233" t="n">
         <v>18</v>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="E233" t="n">
+        <v>87</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G233" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="234">
@@ -6041,15 +6278,16 @@
       <c r="D234" t="n">
         <v>19</v>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="E234" t="n">
+        <v>84</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G234" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="235">
@@ -6065,15 +6303,16 @@
       <c r="D235" t="n">
         <v>20</v>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E235" t="n">
+        <v>81</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G235" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="236">
@@ -6089,15 +6328,16 @@
       <c r="D236" t="n">
         <v>21</v>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E236" t="n">
+        <v>83</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G236" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="237">
@@ -6113,15 +6353,16 @@
       <c r="D237" t="n">
         <v>22</v>
       </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
+      <c r="E237" t="n">
+        <v>92</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G237" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="238">
@@ -6137,15 +6378,16 @@
       <c r="D238" t="n">
         <v>23</v>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
+      <c r="E238" t="n">
+        <v>97</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G238" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="239">
@@ -6161,15 +6403,16 @@
       <c r="D239" t="n">
         <v>24</v>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="E239" t="n">
+        <v>96</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G239" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="240">
@@ -6185,15 +6428,16 @@
       <c r="D240" t="n">
         <v>25</v>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="E240" t="n">
+        <v>94</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G240" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="241">
@@ -6209,15 +6453,16 @@
       <c r="D241" t="n">
         <v>26</v>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="E241" t="n">
+        <v>94</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G241" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="242">
@@ -6233,15 +6478,16 @@
       <c r="D242" t="n">
         <v>27</v>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
+      <c r="E242" t="n">
+        <v>93</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G242" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="243">
@@ -6257,15 +6503,16 @@
       <c r="D243" t="n">
         <v>28</v>
       </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="E243" t="n">
+        <v>95</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G243" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="244">
@@ -6281,15 +6528,16 @@
       <c r="D244" t="n">
         <v>29</v>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="E244" t="n">
+        <v>90</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G244" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="245">
@@ -6305,15 +6553,16 @@
       <c r="D245" t="n">
         <v>30</v>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="E245" t="n">
+        <v>86</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G245" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="246">
@@ -6329,15 +6578,16 @@
       <c r="D246" t="n">
         <v>1</v>
       </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="E246" t="n">
+        <v>72</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G246" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="247">
@@ -6353,15 +6603,16 @@
       <c r="D247" t="n">
         <v>2</v>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="E247" t="n">
+        <v>67</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G247" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="248">
@@ -6377,15 +6628,16 @@
       <c r="D248" t="n">
         <v>3</v>
       </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="E248" t="n">
+        <v>73</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G248" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="249">
@@ -6401,15 +6653,16 @@
       <c r="D249" t="n">
         <v>4</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="E249" t="n">
+        <v>74</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G249" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="250">
@@ -6425,15 +6678,16 @@
       <c r="D250" t="n">
         <v>5</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="E250" t="n">
+        <v>65</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G250" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="251">
@@ -6449,15 +6703,16 @@
       <c r="D251" t="n">
         <v>6</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="E251" t="n">
+        <v>68</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G251" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="252">
@@ -6473,15 +6728,16 @@
       <c r="D252" t="n">
         <v>7</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+      <c r="E252" t="n">
+        <v>71</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G252" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="253">
@@ -6497,15 +6753,16 @@
       <c r="D253" t="n">
         <v>8</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E253" t="n">
+        <v>75</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G253" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="254">
@@ -6521,15 +6778,16 @@
       <c r="D254" t="n">
         <v>9</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="E254" t="n">
+        <v>70</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G254" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="255">
@@ -6545,15 +6803,16 @@
       <c r="D255" t="n">
         <v>10</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="E255" t="n">
+        <v>61</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G255" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="256">
@@ -6569,15 +6828,16 @@
       <c r="D256" t="n">
         <v>11</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+      <c r="E256" t="n">
+        <v>59</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G256" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="257">
@@ -6593,15 +6853,16 @@
       <c r="D257" t="n">
         <v>12</v>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+      <c r="E257" t="n">
+        <v>59</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G257" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="258">
@@ -6617,15 +6878,16 @@
       <c r="D258" t="n">
         <v>13</v>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="E258" t="n">
+        <v>70</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G258" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="259">
@@ -6641,15 +6903,16 @@
       <c r="D259" t="n">
         <v>14</v>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
+      <c r="E259" t="n">
+        <v>93</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G259" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="260">
@@ -6665,15 +6928,16 @@
       <c r="D260" t="n">
         <v>15</v>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="E260" t="n">
+        <v>95</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G260" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="261">
@@ -6689,15 +6953,16 @@
       <c r="D261" t="n">
         <v>16</v>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="E261" t="n">
+        <v>95</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G261" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="262">
@@ -6713,15 +6978,16 @@
       <c r="D262" t="n">
         <v>17</v>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="E262" t="n">
+        <v>60</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G262" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="263">
@@ -6737,15 +7003,16 @@
       <c r="D263" t="n">
         <v>18</v>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="E263" t="n">
+        <v>25</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G263" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="264">
@@ -6761,15 +7028,16 @@
       <c r="D264" t="n">
         <v>19</v>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="E264" t="n">
+        <v>50</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G264" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="265">
@@ -6785,15 +7053,16 @@
       <c r="D265" t="n">
         <v>20</v>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+      <c r="E265" t="n">
+        <v>71</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G265" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="266">
@@ -6809,15 +7078,16 @@
       <c r="D266" t="n">
         <v>21</v>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="E266" t="n">
+        <v>51</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G266" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="267">
@@ -6833,15 +7103,16 @@
       <c r="D267" t="n">
         <v>22</v>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="E267" t="n">
+        <v>37</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G267" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="268">
@@ -6857,15 +7128,16 @@
       <c r="D268" t="n">
         <v>23</v>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="E268" t="n">
+        <v>48</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G268" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="269">
@@ -6881,15 +7153,16 @@
       <c r="D269" t="n">
         <v>24</v>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="E269" t="n">
+        <v>57</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G269" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="270">
@@ -6905,15 +7178,16 @@
       <c r="D270" t="n">
         <v>25</v>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="E270" t="n">
+        <v>68</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G270" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="271">
@@ -6929,15 +7203,16 @@
       <c r="D271" t="n">
         <v>26</v>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="E271" t="n">
+        <v>70</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G271" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="272">
@@ -6953,15 +7228,16 @@
       <c r="D272" t="n">
         <v>27</v>
       </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="E272" t="n">
+        <v>78</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G272" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="273">
@@ -6977,15 +7253,16 @@
       <c r="D273" t="n">
         <v>28</v>
       </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="E273" t="n">
+        <v>70</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G273" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="274">
@@ -7001,15 +7278,16 @@
       <c r="D274" t="n">
         <v>29</v>
       </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="E274" t="n">
+        <v>57</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G274" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="275">
@@ -7025,15 +7303,16 @@
       <c r="D275" t="n">
         <v>30</v>
       </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
+      <c r="E275" t="n">
+        <v>64</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G275" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="276">
@@ -7049,15 +7328,16 @@
       <c r="D276" t="n">
         <v>31</v>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="E276" t="n">
+        <v>67</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G276" t="n">
+        <v>65.80645161290323</v>
       </c>
     </row>
     <row r="277">
@@ -7073,15 +7353,16 @@
       <c r="D277" t="n">
         <v>1</v>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="E277" t="n">
+        <v>67</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G277" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="278">
@@ -7097,15 +7378,16 @@
       <c r="D278" t="n">
         <v>2</v>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+      <c r="E278" t="n">
+        <v>69</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G278" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="279">
@@ -7121,15 +7403,16 @@
       <c r="D279" t="n">
         <v>3</v>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+      <c r="E279" t="n">
+        <v>71</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G279" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="280">
@@ -7145,15 +7428,16 @@
       <c r="D280" t="n">
         <v>4</v>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E280" t="n">
+        <v>77</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G280" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="281">
@@ -7169,15 +7453,16 @@
       <c r="D281" t="n">
         <v>5</v>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E281" t="n">
+        <v>81</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G281" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="282">
@@ -7193,15 +7478,16 @@
       <c r="D282" t="n">
         <v>6</v>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="E282" t="n">
+        <v>66</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G282" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="283">
@@ -7217,15 +7503,16 @@
       <c r="D283" t="n">
         <v>7</v>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
+      <c r="E283" t="n">
+        <v>64</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G283" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="284">
@@ -7241,15 +7528,16 @@
       <c r="D284" t="n">
         <v>8</v>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="E284" t="n">
+        <v>68</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G284" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="285">
@@ -7265,15 +7553,16 @@
       <c r="D285" t="n">
         <v>9</v>
       </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="E285" t="n">
+        <v>78</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G285" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="286">
@@ -7289,15 +7578,16 @@
       <c r="D286" t="n">
         <v>10</v>
       </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="E286" t="n">
+        <v>96</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G286" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="287">
@@ -7313,15 +7603,16 @@
       <c r="D287" t="n">
         <v>11</v>
       </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
+      <c r="E287" t="n">
+        <v>92</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G287" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="288">
@@ -7337,15 +7628,16 @@
       <c r="D288" t="n">
         <v>12</v>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="E288" t="n">
+        <v>94</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G288" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="289">
@@ -7361,15 +7653,16 @@
       <c r="D289" t="n">
         <v>13</v>
       </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+      <c r="E289" t="n">
+        <v>98</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G289" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="290">
@@ -7385,15 +7678,16 @@
       <c r="D290" t="n">
         <v>14</v>
       </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
+      <c r="E290" t="n">
+        <v>92</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G290" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="291">
@@ -7409,15 +7703,16 @@
       <c r="D291" t="n">
         <v>15</v>
       </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="E291" t="n">
+        <v>78</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G291" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="292">
@@ -7433,15 +7728,16 @@
       <c r="D292" t="n">
         <v>16</v>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
+      <c r="E292" t="n">
+        <v>62</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G292" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="293">
@@ -7457,15 +7753,16 @@
       <c r="D293" t="n">
         <v>17</v>
       </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+      <c r="E293" t="n">
+        <v>69</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G293" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="294">
@@ -7481,15 +7778,16 @@
       <c r="D294" t="n">
         <v>18</v>
       </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="E294" t="n">
+        <v>57</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G294" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="295">
@@ -7505,15 +7803,16 @@
       <c r="D295" t="n">
         <v>19</v>
       </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="E295" t="n">
+        <v>61</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G295" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="296">
@@ -7529,15 +7828,16 @@
       <c r="D296" t="n">
         <v>20</v>
       </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
+      <c r="E296" t="n">
+        <v>62</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G296" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="297">
@@ -7553,15 +7853,16 @@
       <c r="D297" t="n">
         <v>21</v>
       </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="E297" t="n">
+        <v>81</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G297" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="298">
@@ -7577,15 +7878,16 @@
       <c r="D298" t="n">
         <v>22</v>
       </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="E298" t="n">
+        <v>86</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G298" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="299">
@@ -7601,15 +7903,16 @@
       <c r="D299" t="n">
         <v>23</v>
       </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+      <c r="E299" t="n">
+        <v>89</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G299" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="300">
@@ -7625,15 +7928,16 @@
       <c r="D300" t="n">
         <v>24</v>
       </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+      <c r="E300" t="n">
+        <v>49</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G300" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="301">
@@ -7649,15 +7953,16 @@
       <c r="D301" t="n">
         <v>25</v>
       </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="E301" t="n">
+        <v>46</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
           <t>#</t>
         </is>
+      </c>
+      <c r="G301" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="302">
@@ -7673,12 +7978,11 @@
       <c r="D302" t="n">
         <v>26</v>
       </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+      <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr"/>
+      <c r="G302" t="n">
+        <v>68.93333333333334</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -7693,15 +7997,16 @@
       <c r="D303" t="n">
         <v>27</v>
       </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="E303" t="n">
+        <v>32</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
           <t>#</t>
         </is>
+      </c>
+      <c r="G303" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="304">
@@ -7717,15 +8022,16 @@
       <c r="D304" t="n">
         <v>28</v>
       </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="E304" t="n">
+        <v>29</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G304" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="305">
@@ -7741,15 +8047,16 @@
       <c r="D305" t="n">
         <v>29</v>
       </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="E305" t="n">
+        <v>36</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G305" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="306">
@@ -7765,15 +8072,16 @@
       <c r="D306" t="n">
         <v>30</v>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+      <c r="E306" t="n">
+        <v>49</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G306" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="307">
@@ -7789,15 +8097,16 @@
       <c r="D307" t="n">
         <v>31</v>
       </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+      <c r="E307" t="n">
+        <v>69</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G307" t="n">
+        <v>68.93333333333334</v>
       </c>
     </row>
     <row r="308">
@@ -7813,15 +8122,16 @@
       <c r="D308" t="n">
         <v>1</v>
       </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="E308" t="n">
+        <v>79</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G308" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="309">
@@ -7837,15 +8147,16 @@
       <c r="D309" t="n">
         <v>2</v>
       </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+      <c r="E309" t="n">
+        <v>85</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G309" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="310">
@@ -7861,15 +8172,16 @@
       <c r="D310" t="n">
         <v>3</v>
       </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E310" t="n">
+        <v>77</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G310" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="311">
@@ -7885,15 +8197,16 @@
       <c r="D311" t="n">
         <v>4</v>
       </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="E311" t="n">
+        <v>83</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G311" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="312">
@@ -7909,15 +8222,16 @@
       <c r="D312" t="n">
         <v>5</v>
       </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="E312" t="n">
+        <v>87</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G312" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="313">
@@ -7933,15 +8247,16 @@
       <c r="D313" t="n">
         <v>6</v>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="E313" t="n">
+        <v>91</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G313" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="314">
@@ -7957,15 +8272,16 @@
       <c r="D314" t="n">
         <v>7</v>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="E314" t="n">
+        <v>90</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G314" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="315">
@@ -7981,15 +8297,16 @@
       <c r="D315" t="n">
         <v>8</v>
       </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="E315" t="n">
+        <v>86</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G315" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="316">
@@ -8005,15 +8322,16 @@
       <c r="D316" t="n">
         <v>9</v>
       </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="E316" t="n">
+        <v>88</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G316" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="317">
@@ -8029,15 +8347,16 @@
       <c r="D317" t="n">
         <v>10</v>
       </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="E317" t="n">
+        <v>91</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G317" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="318">
@@ -8053,15 +8372,16 @@
       <c r="D318" t="n">
         <v>11</v>
       </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="E318" t="n">
+        <v>95</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G318" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="319">
@@ -8077,15 +8397,16 @@
       <c r="D319" t="n">
         <v>12</v>
       </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
+      <c r="E319" t="n">
+        <v>97</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G319" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="320">
@@ -8101,15 +8422,16 @@
       <c r="D320" t="n">
         <v>13</v>
       </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
+      <c r="E320" t="n">
+        <v>93</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G320" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="321">
@@ -8125,15 +8447,16 @@
       <c r="D321" t="n">
         <v>14</v>
       </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
+      <c r="E321" t="n">
+        <v>63</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G321" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="322">
@@ -8149,15 +8472,16 @@
       <c r="D322" t="n">
         <v>15</v>
       </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="E322" t="n">
+        <v>61</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G322" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="323">
@@ -8173,15 +8497,16 @@
       <c r="D323" t="n">
         <v>16</v>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
+      <c r="E323" t="n">
+        <v>62</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G323" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="324">
@@ -8197,15 +8522,16 @@
       <c r="D324" t="n">
         <v>17</v>
       </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+      <c r="E324" t="n">
+        <v>71</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G324" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="325">
@@ -8221,15 +8547,16 @@
       <c r="D325" t="n">
         <v>18</v>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="E325" t="n">
+        <v>77</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G325" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="326">
@@ -8245,15 +8572,16 @@
       <c r="D326" t="n">
         <v>19</v>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E326" t="n">
+        <v>75</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G326" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="327">
@@ -8269,15 +8597,16 @@
       <c r="D327" t="n">
         <v>20</v>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="E327" t="n">
+        <v>66</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G327" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="328">
@@ -8293,15 +8622,16 @@
       <c r="D328" t="n">
         <v>21</v>
       </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="E328" t="n">
+        <v>70</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G328" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="329">
@@ -8317,15 +8647,16 @@
       <c r="D329" t="n">
         <v>22</v>
       </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="E329" t="n">
+        <v>65</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G329" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="330">
@@ -8341,15 +8672,16 @@
       <c r="D330" t="n">
         <v>23</v>
       </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="E330" t="n">
+        <v>72</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G330" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="331">
@@ -8365,15 +8697,16 @@
       <c r="D331" t="n">
         <v>24</v>
       </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="E331" t="n">
+        <v>67</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G331" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="332">
@@ -8389,15 +8722,16 @@
       <c r="D332" t="n">
         <v>25</v>
       </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+      <c r="E332" t="n">
+        <v>56</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G332" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="333">
@@ -8413,15 +8747,16 @@
       <c r="D333" t="n">
         <v>26</v>
       </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="E333" t="n">
+        <v>60</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G333" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="334">
@@ -8437,15 +8772,16 @@
       <c r="D334" t="n">
         <v>27</v>
       </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="E334" t="n">
+        <v>65</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
           <t>#</t>
         </is>
+      </c>
+      <c r="G334" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
     <row r="335">
@@ -8461,15 +8797,16 @@
       <c r="D335" t="n">
         <v>28</v>
       </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="E335" t="n">
+        <v>74</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="G335" t="n">
+        <v>76.64285714285714</v>
       </c>
     </row>
   </sheetData>
